--- a/data/TNP/reviews_data.xlsx
+++ b/data/TNP/reviews_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,45 +455,50 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>pros</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>cons</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>position</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>recommander</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>approbation_pdg</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>perpective_commerciale</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>date_and_positions</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>recommandations</t>
         </is>
@@ -513,35 +518,36 @@
           <t>Une équipe chaleureuse et motivée et de belles missions</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>- une super équipe en Asset Management et Bnaque privée (WAM) très proche les uns des autres - un bon salaire et bon cadre de vie</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>- rien de spécifique (comme n'importe quel cabinet de conseil)</t>
         </is>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="G2" s="2" t="n">
         <v>44858</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Managing Consultant</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
       <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -559,33 +565,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Bonne ambiance de travail avec un management proche des collaborateurs. Missions intéressantes avec un accès au management chez le clients (en tous cas pour les équipes Finance et Risques)</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Les grilles de salaires assez floues peu importe le grade</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="G3" s="2" t="n">
         <v>44917</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Manager</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -601,31 +612,32 @@
           <t>Consultant</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Salaires - clients variés - missions intéressantes</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Organisation hiérarchique - orienté résultat au détriment de l’évolution / progression</t>
         </is>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="G4" s="2" t="n">
         <v>44888</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -643,29 +655,34 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>si tu es en mission longue il te laisse tranquille.</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Pas d'équilibre pro/perso. Les salaires ne sont pas équitables. Les associés se battent entre eux pour les ressources et le business.</t>
         </is>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="G5" s="2" t="n">
         <v>44921</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -681,29 +698,30 @@
           <t>pas top</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>pas grand chose de positif</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Le directeur de pôle (transfo) est prétentieux et sans considération des consultants. étant donné les tensions du marché ils ont beaucoup a perdre donc c'est étonnant, en ce qui me concerne j'ai trouvé bien mieux ailleurs.</t>
         </is>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="G6" s="2" t="n">
         <v>44912</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Product Owner (PO)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -721,33 +739,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Salaire, évolution hiérarchique possible, bon management, équilibre vie pro/perso</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Peu d'intéressement et de participation.</t>
         </is>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="G7" s="2" t="n">
         <v>44864</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -765,27 +788,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Belles opportunités de missions et d'évolutions chez TNP</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Travail prenant, attention à bien respecter la vie perso / pro</t>
         </is>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="G8" s="2" t="n">
         <v>44827</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Manager</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -803,34 +831,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Salaire, ambiance de travail.
 La proximité avec le management</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>La charge de travail peut augmenter lorsqu'on nous demande des activités internes</t>
         </is>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="G9" s="2" t="n">
         <v>44824</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Consultant Confirmé</t>
         </is>
       </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
       <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -846,7 +879,8 @@
           <t>Proximité et projet mettant naturellement le CV en valeur</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Afterwork sympa 
 Management de proximité 
@@ -854,30 +888,30 @@
 Une fonction support de plus en plus engagée</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Beaucoup de travail par moment</t>
         </is>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="G10" s="2" t="n">
         <v>44815</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -895,36 +929,41 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Mission plutôt intéressantes
 Management correct (en fonction des communautés)
 Perspectives d'évolutions intéressantes</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Hétérogénéité en fonction des communautés
 Modèle plutôt individualiste dans le cabinet</t>
         </is>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="G11" s="2" t="n">
         <v>44812</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Consultant</t>
         </is>
       </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -940,29 +979,30 @@
           <t>Consultant</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Salaire avantageux et augmentations intéressantes</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Peu de prise en compte du sur staffing des collaborateurs</t>
         </is>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="G12" s="2" t="n">
         <v>44809</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Consultante</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -978,35 +1018,36 @@
           <t>Avis</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Bonne Ambiance, Afterwork, Bien positionné sur le marché</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Siège trop petit, Bon salaire</t>
         </is>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="G13" s="2" t="n">
         <v>44823</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1024,34 +1065,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Des collègues sympas. Des missions variées</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Un management tres masculin et machiste
 des salaires un peu bas</t>
         </is>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="G14" s="2" t="n">
         <v>44823</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Consultant Sénior</t>
         </is>
       </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1067,29 +1113,30 @@
           <t>/</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Agile, communauté, cabinet à taille humaine</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Pas d’inconvénients à proprement parler</t>
         </is>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="G15" s="2" t="n">
         <v>44806</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1107,27 +1154,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Proximité avec l’équipe / associés</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>La culture et façon de travailler et de gerer les équipes et les salaires dépend énormément de la BU</t>
         </is>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="G16" s="2" t="n">
         <v>44780</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1145,35 +1197,40 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Management accessible
 Esprit d'initiative encouragé
 Taille humaine</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Manque de process bien cadrés</t>
         </is>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="G17" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Manager</t>
         </is>
       </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1189,37 +1246,38 @@
           <t>Bon cabinet</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Missions de plus en plus haut de gamme
 Adéquation pro perso</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Peu de processus internes ce qui crée des difficultés
 Fonctions supports peu performantes</t>
         </is>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="G18" s="2" t="n">
         <v>44771</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
       <c r="I18" t="b">
         <v>1</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1235,31 +1293,32 @@
           <t>avis</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Salaire junior attractif, événements internes</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Problème de management, les talents partent tous</t>
         </is>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="G19" s="2" t="n">
         <v>44781</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1277,28 +1336,33 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Bonne ambiance 
 Et Proximité managérial</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Mission et secteurs assez variés</t>
         </is>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="G20" s="2" t="n">
         <v>44764</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Consultant Junior</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1316,37 +1380,42 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Ambiance interne et proximité avec le management
 Opportunités de progression
 Ambitions de la DG</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Durée des missions rarement inférieur 1 an dans la plupart des BL
 Niveau trop hétérogène des collaborateurs recrutés
 Difficulté à maintenir un équilibre entre vie perso et vie privée</t>
         </is>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="G21" s="2" t="n">
         <v>44761</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Consultant Sénior</t>
         </is>
       </c>
-      <c r="H21" t="b">
-        <v>1</v>
-      </c>
       <c r="I21" t="b">
         <v>1</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1362,29 +1431,30 @@
           <t>Pas mal</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Management pas mal. à l'écoute</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Un seul jour de télétravail</t>
         </is>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="G22" s="2" t="n">
         <v>44754</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Consultant Senior</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1402,33 +1472,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Le salaire est bon lorsque vous êtes sur une trajectoire senior</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>- Staffing : cela dépend des practices. Risque de tomber sur des missions qui ne correspondent pas du tout à votre profil</t>
         </is>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="G23" s="2" t="n">
         <v>44763</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Consultant Confirmé</t>
         </is>
       </c>
-      <c r="H23" t="b">
-        <v>1</v>
-      </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
       <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1444,29 +1519,30 @@
           <t>Super</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Bonne ambiance, collaborateurs bien veillants et ouverts</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Je ne sais pas encore</t>
         </is>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="G24" s="2" t="n">
         <v>44734</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1482,7 +1558,8 @@
           <t>une croissante sécurisée</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Esprit d'entreprise réel et favorisé
 Autonomie des équipes
@@ -1490,30 +1567,30 @@
 Appétence commerciale</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>processus internes parfois peu maitrisés,</t>
         </is>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="G25" s="2" t="n">
         <v>44728</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Directeur</t>
         </is>
       </c>
-      <c r="H25" t="b">
-        <v>1</v>
-      </c>
       <c r="I25" t="b">
         <v>1</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
       <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1531,33 +1608,38 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Missions intéressantes, esprit entrepreneurial et autonomie</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Manque de rigueur sur certains process internes ...</t>
         </is>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="G26" s="2" t="n">
         <v>44724</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Consultant Senior</t>
         </is>
       </c>
-      <c r="H26" t="b">
-        <v>1</v>
-      </c>
       <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
         <v>0</v>
       </c>
-      <c r="J26" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
       <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1575,35 +1657,40 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Accessibilité du management
 Liberté d'initiatives
 Jobs intéressants</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Moins de process qu'une grande entreprise</t>
         </is>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="G27" s="2" t="n">
         <v>44706</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Manager</t>
         </is>
       </c>
-      <c r="H27" t="b">
-        <v>1</v>
-      </c>
       <c r="I27" t="b">
         <v>1</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
       <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1621,35 +1708,40 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Diversité des missions
 Proximité du management</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Absence d'équilibre vie pro/vie perso
 Equipe RH quasi absente</t>
         </is>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="G28" s="2" t="n">
         <v>44719</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Consultant Junior</t>
         </is>
       </c>
-      <c r="H28" t="b">
-        <v>1</v>
-      </c>
       <c r="I28" t="b">
         <v>1</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
       <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1667,33 +1759,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>diversité des missions, évolution rapide et ambiance agréable</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>manque d'encadrement des plus juniors, conciliation vie privée/vie pro parfois difficile</t>
         </is>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="G29" s="2" t="n">
         <v>44704</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H29" t="b">
-        <v>1</v>
-      </c>
       <c r="I29" t="b">
         <v>1</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
       <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1709,35 +1806,36 @@
           <t>Un cabinet où s'épanouir</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Dynamisme, qualité des missions, taille humaine, proximité du top management</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Structuration d'une activité qui augmente rapidement</t>
         </is>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="G30" s="2" t="n">
         <v>44701</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Manager</t>
         </is>
       </c>
-      <c r="H30" t="b">
-        <v>1</v>
-      </c>
       <c r="I30" t="b">
         <v>1</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1753,7 +1851,8 @@
           <t>Le cabinet de conseil qui développe le leadership numérique et la création d'entreprise</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Business Line autonomes et reconnues des clients (5 Offres, 4 Marchés)
 Triple expertise Digitale &amp; Agile, Exc. Op et Réglementaire Banque &amp; RGPD
@@ -1766,30 +1865,30 @@
 Une pépinière à DSI.</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Equilibre vie pro / vie privée à améliorer</t>
         </is>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="G31" s="2" t="n">
         <v>44676</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Partner</t>
         </is>
       </c>
-      <c r="H31" t="b">
-        <v>1</v>
-      </c>
       <c r="I31" t="b">
         <v>1</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1807,33 +1906,38 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Prise de responsabilité, Montée en compétences</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Besoin de s'adapter par soi-même</t>
         </is>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="G32" s="2" t="n">
         <v>44671</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Consultant Stagiaire</t>
         </is>
       </c>
-      <c r="H32" t="b">
-        <v>1</v>
-      </c>
       <c r="I32" t="b">
         <v>1</v>
       </c>
       <c r="J32" t="b">
         <v>1</v>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1851,34 +1955,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Salaire plutôt bon par rapport au marché
 Missions intéressantes</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>cabinet de conseil donc difficile d'avoir des liens forts avec les autres consultants quand on est en mission</t>
         </is>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="G33" s="2" t="n">
         <v>44666</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Manager</t>
         </is>
       </c>
-      <c r="H33" t="b">
-        <v>1</v>
-      </c>
       <c r="I33" t="b">
         <v>1</v>
       </c>
       <c r="J33" t="b">
         <v>1</v>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1894,29 +2003,30 @@
           <t>Beaucoup de challenges</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Une grande liberté pour entreprendre</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Beaucoup de travail, pas assez de consultants</t>
         </is>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="G34" s="2" t="n">
         <v>44679</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Manager</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1933,6 +2043,11 @@
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>Cormeilles</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>intrapreneurship
 Beaucoup de projets coeur de métier chez nos clients
@@ -1941,30 +2056,30 @@
 rémunération attractive (fixe/variable)</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>pas encore trouvé, peut-être gestion pro/perso à mettre sous contrôle car le boulot peut vite devenir passionnant :).</t>
         </is>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="G35" s="2" t="n">
         <v>44662</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Directeur Digital &amp; Solutions</t>
         </is>
       </c>
-      <c r="H35" t="b">
-        <v>1</v>
-      </c>
       <c r="I35" t="b">
         <v>1</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1982,33 +2097,38 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Le salaire est particulièrement attractif</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Avantage entreprise peu satisfaisants ajd</t>
         </is>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="G36" s="2" t="n">
         <v>44671</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Consultante</t>
         </is>
       </c>
-      <c r="H36" t="b">
-        <v>1</v>
-      </c>
       <c r="I36" t="b">
         <v>1</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
       <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2024,29 +2144,30 @@
           <t>Bonne expérience</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>Possibilité de s'engager sur des projets pour s'épanouir</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Nécessité d'être mobile en France et étranger</t>
         </is>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="G37" s="2" t="n">
         <v>44656</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2062,38 +2183,39 @@
           <t>Good</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>Salaire élevé 
 Mission intéressante
 Séniorité des équipes</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Manque de process
 Charge de travail importante</t>
         </is>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="G38" s="2" t="n">
         <v>44642</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Consultant</t>
         </is>
       </c>
-      <c r="H38" t="b">
-        <v>1</v>
-      </c>
       <c r="I38" t="b">
         <v>1</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
       <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2111,27 +2233,32 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Forte croissance et très bonne place donnée à l'initiative personnelle</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Équilibre vie privée et vie professionnelle insuffisamment respecté.</t>
         </is>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="G39" s="2" t="n">
         <v>44643</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Consultant Sénior</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2149,32 +2276,37 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Salaire attractif
 beaux projets à dimension internationale</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Charge de travail assez rude</t>
         </is>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="G40" s="2" t="n">
         <v>44642</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Consultant Confirmée</t>
         </is>
       </c>
-      <c r="H40" t="b">
-        <v>1</v>
-      </c>
       <c r="I40" t="b">
         <v>1</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2192,37 +2324,42 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Ambiance à première vue sympa.
 Place laissée à l'initiative et aux "self-made men".
 Quelques managers/directeurs qui tiennent à produire du travail de qualité.</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Enorme pression commerciale de la part de l'équipe dirigeante, qui ruisselle jusqu'aux consultants. On n'est pas là pour faire du bon travail, on est là pour vendre et empocher. Finalement derrière l'apparent esprit startup sympa et dynamique, on retrouve le cliché d'une boîte de commerciaux prêts à vendre leur chemise (ou plus) pour atteindre des objectifs financiers irréalistes, plus que celui d'un vrai cabinet de conseil.
 Conséquences : des missions Powerpoint bâclées, sous-staffées, des juniors proches du burnout, pressés comme des citrons par des managers souvent propulsés dans le poste grâce à leur capacité à vendre de la PMO longue durée plus que pour leur expérience et leurs compétences.
 Quelques rares employés sortent néanmoins du lot et remontent le niveau comme ils le peuvent.</t>
         </is>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="G41" s="2" t="n">
         <v>44614</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H41" t="b">
-        <v>1</v>
-      </c>
       <c r="I41" t="b">
         <v>1</v>
       </c>
       <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2240,33 +2377,38 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Autonomie, flexibilité et tickets restau</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Beaucoup de travail et de stress</t>
         </is>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="G42" s="2" t="n">
         <v>44584</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Ingénieur d affaires</t>
         </is>
       </c>
-      <c r="H42" t="b">
-        <v>1</v>
-      </c>
       <c r="I42" t="b">
         <v>1</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
       <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2284,31 +2426,36 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>Reconnu sur la place parisienne</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Stratégie développement trop agressive, se perd</t>
         </is>
       </c>
-      <c r="F43" s="2" t="n">
+      <c r="G43" s="2" t="n">
         <v>44570</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H43" t="b">
-        <v>1</v>
-      </c>
       <c r="I43" t="b">
         <v>1</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2324,29 +2471,30 @@
           <t>Formatrice !</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>missions intéressantes, Esprit d'équipe, challenge, management présent</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>rien à signaler pour l'instant</t>
         </is>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="G44" s="2" t="n">
         <v>44546</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Consultant</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2362,35 +2510,36 @@
           <t>Bon environnement</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>Missions intéressantes, entreprise avec une belle vision</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Intégration des nouveaux parfois compliquée (encore plus en situation de covid)</t>
         </is>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="G45" s="2" t="n">
         <v>44525</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H45" t="b">
-        <v>1</v>
-      </c>
       <c r="I45" t="b">
         <v>1</v>
       </c>
       <c r="J45" t="b">
         <v>1</v>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
       <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2408,33 +2557,38 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Avantages salariales intéressantes, Beaucoup d’investissements</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Missions quelquefois peu intéressantes en data</t>
         </is>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="G46" s="2" t="n">
         <v>44529</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H46" t="b">
-        <v>1</v>
-      </c>
       <c r="I46" t="b">
         <v>1</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
       <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2452,33 +2606,38 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>De belles missions de conseil à la fois variées avec une forte exposition (C-Level et parfois Direction générale)</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Cabinet bénéficiant d'une plus faible renommée que la concurrence (big 4 par exemple)</t>
         </is>
       </c>
-      <c r="F47" s="2" t="n">
+      <c r="G47" s="2" t="n">
         <v>44487</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Manager</t>
         </is>
       </c>
-      <c r="H47" t="b">
-        <v>1</v>
-      </c>
       <c r="I47" t="b">
         <v>1</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
       <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2496,27 +2655,32 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>il n'y en a pas vraiment .</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Type de missions, esprit et mentalité au sein de l'entreprise</t>
         </is>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="G48" s="2" t="n">
         <v>44520</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Consultante confirmée</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2533,6 +2697,11 @@
         </is>
       </c>
       <c r="D49" t="inlineStr">
+        <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>- Autonomie laissée aux collaborateurs
 - Possibilités d'évolution de carrière
@@ -2541,30 +2710,30 @@
 - Missions proposées diversifiées (missions opérationnelles et de stratégie haut niveau) permettant à chaque collaborateur de progresser à son rythme</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>L'intégration entre les bureaux à l'étranger et les bureaux français est encore à améliorer</t>
         </is>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="G49" s="2" t="n">
         <v>44483</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Directeur</t>
         </is>
       </c>
-      <c r="H49" t="b">
-        <v>1</v>
-      </c>
       <c r="I49" t="b">
         <v>1</v>
       </c>
       <c r="J49" t="b">
         <v>1</v>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
       <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2582,33 +2751,38 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>J'ai commencé à TNP en tant que stagiaire dans les bureaux de Marseille. Très belle équipe grandissante, avec une bonne ambiance. J'ai pu monter en compétences et me former sur des sujets qui m'intéressaient. Maintenant en CDI, c'est une belle expérience que je continue à vivre à TNP.</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Le processus de recrutement peut être un peu long, mais en progrès à ce sujet.</t>
         </is>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="G50" s="2" t="n">
         <v>44483</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Consultante</t>
         </is>
       </c>
-      <c r="H50" t="b">
-        <v>1</v>
-      </c>
       <c r="I50" t="b">
         <v>1</v>
       </c>
       <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" t="b">
         <v>0</v>
       </c>
-      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2626,34 +2800,39 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Proximité entre les consultants, les équipes et les dirigeants/direction. Esprit familiale et sentiment d'union.
 Grande montée en compétence due à une séniorité élevée et des membres impliqués. 
 Mission intéressantes et variées.</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Situé à Paris
 Moins structuré qu'une grande entreprise (pour le moment)</t>
         </is>
       </c>
-      <c r="F51" s="2" t="n">
+      <c r="G51" s="2" t="n">
         <v>44476</v>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Consultant</t>
         </is>
       </c>
-      <c r="H51" t="b">
-        <v>1</v>
-      </c>
       <c r="I51" t="b">
         <v>1</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2671,33 +2850,38 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Ambiance sympa et projets intéressants</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Grandes disparités en terme de salaires et entre pays</t>
         </is>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="G52" s="2" t="n">
         <v>44472</v>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Consultante confirmée</t>
         </is>
       </c>
-      <c r="H52" t="b">
-        <v>1</v>
-      </c>
       <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="b">
         <v>0</v>
       </c>
-      <c r="J52" t="b">
-        <v>1</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
       <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2714,6 +2898,11 @@
         </is>
       </c>
       <c r="D53" t="inlineStr">
+        <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>Forte proximité
 Ambiance fun 
@@ -2722,30 +2911,30 @@
 Cabinet qui pousse ses consultants à se former --&gt; e-learning et présentiel</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Encore de la structuration et des outils à mettre en place pour améliorer le quotidien des salariés</t>
         </is>
       </c>
-      <c r="F53" s="2" t="n">
+      <c r="G53" s="2" t="n">
         <v>44474</v>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Business Partner</t>
         </is>
       </c>
-      <c r="H53" t="b">
-        <v>1</v>
-      </c>
       <c r="I53" t="b">
         <v>1</v>
       </c>
       <c r="J53" t="b">
         <v>1</v>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
       <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2763,28 +2952,33 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>Missions diverses avec un fort enjeu
 Apprentissage rapide</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Pas toujours le choix sur les missions</t>
         </is>
       </c>
-      <c r="F54" s="2" t="n">
+      <c r="G54" s="2" t="n">
         <v>44462</v>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Consultant</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2802,11 +2996,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>Diversités des missions
 Vous pourrez évoluer rapidement si vous rapportez du business</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Beaucoup trop malheureusement
 Très peu d'éthique
@@ -2817,25 +3016,25 @@
 Aucune reconnaissance</t>
         </is>
       </c>
-      <c r="F55" s="2" t="n">
+      <c r="G55" s="2" t="n">
         <v>44462</v>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Senior Manager</t>
         </is>
       </c>
-      <c r="H55" t="b">
-        <v>1</v>
-      </c>
       <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="b">
         <v>0</v>
       </c>
-      <c r="J55" t="b">
-        <v>1</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
       <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2852,6 +3051,11 @@
         </is>
       </c>
       <c r="D56" t="inlineStr">
+        <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>- Scope des missions, du conseil en management jusqu'a des missions de conseil en stratégie
 - L'accessibilité des consultants/managers/directeurs... Et un président au contact de ses équipes, accessible, passionné par son métier avec une vision sur le marché du conseil
@@ -2859,28 +3063,28 @@
 - L'ambiance (pots, plénière, séminaires...)</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>- La charge de travail du métier de consultant, qu'on retrouve néanmoins dans tous les cabinets.</t>
         </is>
       </c>
-      <c r="F56" s="2" t="n">
+      <c r="G56" s="2" t="n">
         <v>44381</v>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Consultante</t>
         </is>
       </c>
-      <c r="H56" t="b">
-        <v>1</v>
-      </c>
       <c r="I56" t="b">
         <v>1</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2898,33 +3102,38 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>Il s'agit d'un cabinet en croissance où chacun trouve sa place, que ce soit en interne ou au sein d'une équipe sur une mission. La progression est constante pour chaque consultant et le suivi cohérent. Une ambiance super qui rend les journées de travail agréables et efficaces</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>La croissance du cabinet occasionne parfois quelques petits couacs dans la gestion de certains aspects d'entreprises mais cela est en cours de règlement grâce à l'investissement des équipes et des supports</t>
         </is>
       </c>
-      <c r="F57" s="2" t="n">
+      <c r="G57" s="2" t="n">
         <v>44377</v>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Consultante Junior</t>
         </is>
       </c>
-      <c r="H57" t="b">
-        <v>1</v>
-      </c>
       <c r="I57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
       <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2942,33 +3151,38 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>Missions interessantes, Missions diverses, Encadrement positif</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Personalités fortes pouvant etre génantes</t>
         </is>
       </c>
-      <c r="F58" s="2" t="n">
+      <c r="G58" s="2" t="n">
         <v>44371</v>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Consultants senior</t>
         </is>
       </c>
-      <c r="H58" t="b">
-        <v>1</v>
-      </c>
       <c r="I58" t="b">
         <v>1</v>
       </c>
       <c r="J58" t="b">
         <v>1</v>
       </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
       <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2986,35 +3200,40 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>- Bienveillance et bonne ambiance globale au sein du cabinet
 - Diversification des missions et des secteurs</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>- Horaires variables et parfois denses
 - Peu d'accompagnement et d'encadrement pour les nouveaux arrivants</t>
         </is>
       </c>
-      <c r="F59" s="2" t="n">
+      <c r="G59" s="2" t="n">
         <v>44371</v>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Consultant</t>
         </is>
       </c>
-      <c r="H59" t="b">
-        <v>1</v>
-      </c>
       <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
         <v>0</v>
       </c>
-      <c r="J59" t="b">
-        <v>1</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
       <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3032,33 +3251,38 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>Intrapreunariat, Pragmatisme, Innovation, Ambition, Conviction, Visibilité du CEO</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Il faudrait une communication plus régulière sur les avancées de l'entreprise</t>
         </is>
       </c>
-      <c r="F60" s="2" t="n">
+      <c r="G60" s="2" t="n">
         <v>44371</v>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Consultant Confirmé</t>
         </is>
       </c>
-      <c r="H60" t="b">
-        <v>1</v>
-      </c>
       <c r="I60" t="b">
         <v>1</v>
       </c>
       <c r="J60" t="b">
         <v>1</v>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
       <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3074,7 +3298,8 @@
           <t>Entreprise dynamique et formatrice</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>- Fort esprit entrepreneurial 
 - Missions formatrices
@@ -3082,24 +3307,24 @@
 - Entreprise en développement constant (dvpt de nouvelles activités)</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>- Certains process encore en construction</t>
         </is>
       </c>
-      <c r="F61" s="2" t="n">
+      <c r="G61" s="2" t="n">
         <v>44371</v>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Consultant Senior</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3117,33 +3342,38 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>Bienveillance, des projets intéressants, des missions à distance et localement sur Paris</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Quelques missions PMO qui ne sont pas orientée apport de valeur mais apport de ressources</t>
         </is>
       </c>
-      <c r="F62" s="2" t="n">
+      <c r="G62" s="2" t="n">
         <v>44371</v>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H62" t="b">
-        <v>1</v>
-      </c>
       <c r="I62" t="b">
         <v>1</v>
       </c>
       <c r="J62" t="b">
         <v>1</v>
       </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
       <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3159,35 +3389,36 @@
           <t>Une entreprise dynamique et motivante</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>TNP est une entreprise agréable où l'ambiance de travail est détendue et fun au sein des équipes. Les missions sont de qualité et avec une niveau fort de séniorité qui permet d'acquérir des compétences et de travailler avec des experts</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>Une autonomie et une organisation sur la base du volontariat qui ne conviennent pas à tout le monde</t>
         </is>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="G63" s="2" t="n">
         <v>44371</v>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Manager</t>
         </is>
       </c>
-      <c r="H63" t="b">
-        <v>1</v>
-      </c>
       <c r="I63" t="b">
         <v>1</v>
       </c>
       <c r="J63" t="b">
         <v>1</v>
       </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
       <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3205,34 +3436,39 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>Séminaire d’intégration 
 Ticket restaurant et collaborateurs présent</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>Taux d’inter staffing élevé et temps de mission réduit.</t>
         </is>
       </c>
-      <c r="F64" s="2" t="n">
+      <c r="G64" s="2" t="n">
         <v>44354</v>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Consultant Stagiaire</t>
         </is>
       </c>
-      <c r="H64" t="b">
-        <v>1</v>
-      </c>
       <c r="I64" t="b">
         <v>1</v>
       </c>
       <c r="J64" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3249,6 +3485,11 @@
         </is>
       </c>
       <c r="D65" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>Missions variées et à forte valeur ajoutée
 Encadrement senior, challengeant mais formateur
@@ -3256,31 +3497,31 @@
 Rooftop et afterwork dans la TNP Tower</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>Process interne peu robuste
 Fonctions supports disponibles mais souvent débordée</t>
         </is>
       </c>
-      <c r="F65" s="2" t="n">
+      <c r="G65" s="2" t="n">
         <v>44340</v>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H65" t="b">
-        <v>1</v>
-      </c>
       <c r="I65" t="b">
         <v>1</v>
       </c>
       <c r="J65" t="b">
         <v>1</v>
       </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
       <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3297,13 +3538,18 @@
         </is>
       </c>
       <c r="D66" t="inlineStr">
+        <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>- Localisation ( Neuilly)
 - Entreprise à taille humaine (plus tellement vrai)
 - Salaire moyen -</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>- Projets et missions vendues sans réelles compétences, laissant des stagiaires et juniors s'occuper seuls de sujets hors de leurs portée. Les plus chanceux d'entre eux auront le droit de mobiliser des experts externes en mode sapeur pompier 
 - Sur-staffing et travail le week-end normalisés (pas intéressant vu le salaire)
@@ -3313,25 +3559,25 @@
 - Outillage interne à reprendre de A à Z</t>
         </is>
       </c>
-      <c r="F66" s="2" t="n">
+      <c r="G66" s="2" t="n">
         <v>44361</v>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Consultante</t>
         </is>
       </c>
-      <c r="H66" t="b">
-        <v>1</v>
-      </c>
       <c r="I66" t="b">
         <v>1</v>
       </c>
       <c r="J66" t="b">
         <v>1</v>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
       <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3348,6 +3594,11 @@
         </is>
       </c>
       <c r="D67" t="inlineStr">
+        <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>Équipe soudée
 Bonne Ambiance
@@ -3356,30 +3607,30 @@
 Apprentissage Rapide</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>Structuration interne du cabinet parfois approximative</t>
         </is>
       </c>
-      <c r="F67" s="2" t="n">
+      <c r="G67" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H67" t="b">
-        <v>1</v>
-      </c>
       <c r="I67" t="b">
         <v>1</v>
       </c>
       <c r="J67" t="b">
         <v>1</v>
       </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
       <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3395,33 +3646,34 @@
           <t>Bonne expérience</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>Entreprise à taille humaine, bonne atmosphère, salaire très convenable.</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>Le pourcentage de turnover est important</t>
         </is>
       </c>
-      <c r="F68" s="2" t="n">
+      <c r="G68" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Business Developer</t>
         </is>
       </c>
-      <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="b">
-        <v>1</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
       <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3438,6 +3690,11 @@
         </is>
       </c>
       <c r="D69" t="inlineStr">
+        <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>Salaire 
 Esprit entrepreneurial
@@ -3447,27 +3704,27 @@
 Des managers sympas</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>Pas de prise en compte de ce que tu souhaites faire comme sujet
 Des fondateurs complètement décoléré de la réalité</t>
         </is>
       </c>
-      <c r="F69" s="2" t="n">
+      <c r="G69" s="2" t="n">
         <v>44304</v>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Consultante</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="b">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="b">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3485,33 +3742,38 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>Un système de parrain qui permet d'éviter de se retrouver isoler.</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>Une absence de contact entre les associés et les consultants.</t>
         </is>
       </c>
-      <c r="F70" s="2" t="n">
+      <c r="G70" s="2" t="n">
         <v>44299</v>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Consultant</t>
         </is>
       </c>
-      <c r="H70" t="b">
-        <v>1</v>
-      </c>
       <c r="I70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
       <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3529,27 +3791,32 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>Flexibilité dans les practice avec une possibilité de changement</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>Investissement en interne fort qui est demandé pour les consultants</t>
         </is>
       </c>
-      <c r="F71" s="2" t="n">
+      <c r="G71" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Consultante</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3567,33 +3834,38 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>Dynamisme, Autonomie, proximité du management</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>Pression sur les équipes, Processus internes à améliorer</t>
         </is>
       </c>
-      <c r="F72" s="2" t="n">
+      <c r="G72" s="2" t="n">
         <v>44237</v>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Consultant S&amp;eacute; nior</t>
         </is>
       </c>
-      <c r="H72" t="b">
-        <v>1</v>
-      </c>
       <c r="I72" t="b">
         <v>1</v>
       </c>
       <c r="J72" t="b">
         <v>1</v>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
       <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3609,35 +3881,36 @@
           <t>Problème de management</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>Expérience, conditions, salaire, ambiance, diversité des missions</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>horaires, charge de travail, management</t>
         </is>
       </c>
-      <c r="F73" s="2" t="n">
+      <c r="G73" s="2" t="n">
         <v>44250</v>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H73" t="b">
-        <v>1</v>
-      </c>
       <c r="I73" t="b">
         <v>1</v>
       </c>
       <c r="J73" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73" t="b">
         <v>0</v>
       </c>
-      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3655,34 +3928,39 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>Très bonne ambiance malgré l'exigence 
 Dynamisme commercial</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>Des fonctions support sous dimensionnées</t>
         </is>
       </c>
-      <c r="F74" s="2" t="n">
+      <c r="G74" s="2" t="n">
         <v>44229</v>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Directeur</t>
         </is>
       </c>
-      <c r="H74" t="b">
-        <v>1</v>
-      </c>
       <c r="I74" t="b">
         <v>1</v>
       </c>
       <c r="J74" t="b">
         <v>1</v>
       </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
       <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3700,29 +3978,34 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>- Bonne rémunération
 - Valorisation du travail réalisé
 - Catalogue de formation de qualité</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>- Cabinet pas très processé</t>
         </is>
       </c>
-      <c r="F75" s="2" t="n">
+      <c r="G75" s="2" t="n">
         <v>44230</v>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Consultant</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3740,27 +4023,32 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
           <t>salaire, variété des missions, autonomie</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>solitude, focalisé sur le commercial</t>
         </is>
       </c>
-      <c r="F76" s="2" t="n">
+      <c r="G76" s="2" t="n">
         <v>44237</v>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Managing Consultant</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3778,33 +4066,38 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
           <t>Seul les dirigeants tirent des avantages.</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>Pas de reconnaissance du travail, une évolution difficile pour le genre masculin, des missions peu intéressantes.</t>
         </is>
       </c>
-      <c r="F77" s="2" t="n">
+      <c r="G77" s="2" t="n">
         <v>44242</v>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Business Consultant</t>
         </is>
       </c>
-      <c r="H77" t="b">
-        <v>1</v>
-      </c>
       <c r="I77" t="b">
         <v>1</v>
       </c>
       <c r="J77" t="b">
         <v>1</v>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
       <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3822,33 +4115,38 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>Bonne entente et cohésion dans l'équipe, d'origines professionnelles diverses - Taille humaine et disponibilité de la Direction pour proposer des idées, apporter de l'aide, etc. - En forte croissance avec nouveaux projets de développements (international, digital, etc.) - Expertise large : juridique mais aussi technique (cybersécurité) et gestion de projet - Possibilité de se former à de nouveaux domaines - Possibilité d'évoluer en interne</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>Staffing important actuellement car forte croissance mais en phase de recrutement</t>
         </is>
       </c>
-      <c r="F78" s="2" t="n">
+      <c r="G78" s="2" t="n">
         <v>44195</v>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H78" t="b">
-        <v>1</v>
-      </c>
       <c r="I78" t="b">
         <v>1</v>
       </c>
       <c r="J78" t="b">
         <v>1</v>
       </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
       <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3864,29 +4162,30 @@
           <t>Entreprise agréable</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>Management horizontal, bonne atmosphère, possibilités d'évolutions</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>Nécessité d'être immédiatement extrêmement autonome</t>
         </is>
       </c>
-      <c r="F79" s="2" t="n">
+      <c r="G79" s="2" t="n">
         <v>44192</v>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Consultante</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3904,37 +4203,42 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>Bonne expérience globalement
 Variété des missions et des secteurs
 Bienveillance des collaborateurs</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>Politique salariale insuffisante et manque d'équité du processus d'évaluation
 Évolution de carrière lente
 Intérêt des missions pas toujours au rendez-vous</t>
         </is>
       </c>
-      <c r="F80" s="2" t="n">
+      <c r="G80" s="2" t="n">
         <v>44185</v>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H80" t="b">
-        <v>1</v>
-      </c>
       <c r="I80" t="b">
         <v>1</v>
       </c>
       <c r="J80" t="b">
         <v>1</v>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
       <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3951,13 +4255,18 @@
         </is>
       </c>
       <c r="D81" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>Quelques avantages qui permet de trouver des bons collègues. 
 Des outils performants (PC, téléphone)
 Un salaire dans la fourchette du marché du consulting</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>Plus d'inconvénients que d'avantages à savoir :
 - un management qui méprise le travail des consultants, 
@@ -3966,25 +4275,25 @@
 - une compétition acerbe entre les collègues et certaines relations toxiques</t>
         </is>
       </c>
-      <c r="F81" s="2" t="n">
+      <c r="G81" s="2" t="n">
         <v>44210</v>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>IT Consultant</t>
         </is>
       </c>
-      <c r="H81" t="b">
-        <v>1</v>
-      </c>
       <c r="I81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="b">
+        <v>0</v>
+      </c>
       <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4002,35 +4311,40 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>-Pluralité de missions intellectuellement stimulantes
 -Bonne ambiance dans le cabinet</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>-Equilibre vie pro/perso
 -Management pas tout le temps conciliant</t>
         </is>
       </c>
-      <c r="F82" s="2" t="n">
+      <c r="G82" s="2" t="n">
         <v>44179</v>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H82" t="b">
-        <v>1</v>
-      </c>
       <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="b">
         <v>0</v>
       </c>
-      <c r="J82" t="b">
-        <v>1</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
       <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4048,34 +4362,39 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>Agréable surprise de découvrir ce cabinet de conseil qui donne la part belle au dynamisme et à l'initiative : la parole y est libérée et les compétences sont valorisées notamment avec une politique de formation solide. La structure est à l'écoute et fournit les moyens et l'accompagnement indispensables au succès des missions
 TNP est également un écosystème de spécialistes qui ont vocation à construire de belles propositions de valeur et à être solidaires dans la conquête de nouvelles affaires. L'implantation régionale et internationale est ambitieuse avec de bonnes perspectives, notamment pour la mobilité interne pour aller découvrir de nouveaux clients et secteurs d'activité.</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>Le métier du conseil est exigeant et la période actuelle doit permettre de trouver un équilibre entre le travail à distance et la proximité nécessaire avec l'entreprise et ses clients. Des efforts communs sont consentis en ce moment.</t>
         </is>
       </c>
-      <c r="F83" s="2" t="n">
+      <c r="G83" s="2" t="n">
         <v>44158</v>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Manager</t>
         </is>
       </c>
-      <c r="H83" t="b">
-        <v>1</v>
-      </c>
       <c r="I83" t="b">
         <v>1</v>
       </c>
       <c r="J83" t="b">
         <v>1</v>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
       <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4093,36 +4412,41 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>Très forte autonomie dès mon arrivée. Confiance des associés et des collaborateurs sur les process mis en place.
 Ambiance cool, bonne énergie collective malgré une charge de travail importante
 Salaire attractif et liberté d'organisation.</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>CSE mis en place mais qui peine à décoller. 
 Crise sanitaire ayant impactée fortement tous nos événement de team building (afterwork, séminaire à l'étranger...)</t>
         </is>
       </c>
-      <c r="F84" s="2" t="n">
+      <c r="G84" s="2" t="n">
         <v>44158</v>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Resource Manager</t>
         </is>
       </c>
-      <c r="H84" t="b">
-        <v>1</v>
-      </c>
       <c r="I84" t="b">
         <v>1</v>
       </c>
       <c r="J84" t="b">
         <v>1</v>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
       <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4140,27 +4464,32 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>Entreprenariat, Excellent, Motivation, Fun , Ambiance, Rémunération</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>Entreprise qui a le sens du développement du collaborateur</t>
         </is>
       </c>
-      <c r="F85" s="2" t="n">
+      <c r="G85" s="2" t="n">
         <v>44149</v>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Partner</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4178,33 +4507,38 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
           <t>Cabinet à taille humaine, rémunération attractive, Management de proximité</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>Investissement interne indispensable pour progresser, nécessité d'être visible</t>
         </is>
       </c>
-      <c r="F86" s="2" t="n">
+      <c r="G86" s="2" t="n">
         <v>44140</v>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Consultant Confirmé</t>
         </is>
       </c>
-      <c r="H86" t="b">
-        <v>1</v>
-      </c>
       <c r="I86" t="b">
         <v>1</v>
       </c>
       <c r="J86" t="b">
         <v>1</v>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
       <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4221,6 +4555,11 @@
         </is>
       </c>
       <c r="D87" t="inlineStr">
+        <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
         <is>
           <t>Salaires compétitifs et bonnes augmentations 
 Missions intéressantes
@@ -4228,7 +4567,7 @@
 Fort développement commercial bien récompensé</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>Grande frilosité vis à vis du télétravail 
 Très peu de femmes (ADN très masculin)
@@ -4236,25 +4575,25 @@
 Forte valorisation du commercial au détriment de la qualité de la production sur mission et de la satisfaction client</t>
         </is>
       </c>
-      <c r="F87" s="2" t="n">
+      <c r="G87" s="2" t="n">
         <v>44115</v>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H87" t="b">
-        <v>1</v>
-      </c>
       <c r="I87" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87" t="b">
         <v>0</v>
       </c>
-      <c r="J87" t="b">
-        <v>1</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="b">
+        <v>1</v>
+      </c>
       <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4271,6 +4610,11 @@
         </is>
       </c>
       <c r="D88" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>Ambiance casual 
 locaux beaux 
@@ -4278,28 +4622,28 @@
 Bon salaire</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Rien à signaler de ce coté</t>
         </is>
       </c>
-      <c r="F88" s="2" t="n">
+      <c r="G88" s="2" t="n">
         <v>44049</v>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Chef De Projet</t>
         </is>
       </c>
-      <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="b">
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="b">
         <v>0</v>
       </c>
-      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4317,33 +4661,38 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>Autonomie laissée aux profils plus juniors et très bonnes perspectives d'évolution</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>Rythme de travail énorme ne permettant pas facilement un bon équilibre vie professionnelle / vie privée</t>
         </is>
       </c>
-      <c r="F89" s="2" t="n">
+      <c r="G89" s="2" t="n">
         <v>44028</v>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Consultant RGPD</t>
         </is>
       </c>
-      <c r="H89" t="b">
-        <v>1</v>
-      </c>
       <c r="I89" t="b">
         <v>1</v>
       </c>
       <c r="J89" t="b">
         <v>1</v>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
       <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4361,36 +4710,41 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>Bonne rémunération 
 Process de recrutement rapide</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>Le type de missions
 Le nombre de missions 
 La formation des consultant junior</t>
         </is>
       </c>
-      <c r="F90" s="2" t="n">
+      <c r="G90" s="2" t="n">
         <v>44006</v>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Junior Digital Transformation Consultant</t>
         </is>
       </c>
-      <c r="H90" t="b">
-        <v>1</v>
-      </c>
       <c r="I90" t="b">
         <v>1</v>
       </c>
       <c r="J90" t="b">
+        <v>1</v>
+      </c>
+      <c r="K90" t="b">
         <v>0</v>
       </c>
-      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4408,35 +4762,40 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
           <t>Management
 Formation
 Une entreprise qui cherche sans cesse a s'améliorer</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>Peu de teletravail pour le moment</t>
         </is>
       </c>
-      <c r="F91" s="2" t="n">
+      <c r="G91" s="2" t="n">
         <v>43960</v>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H91" t="b">
-        <v>1</v>
-      </c>
       <c r="I91" t="b">
         <v>1</v>
       </c>
       <c r="J91" t="b">
         <v>1</v>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="b">
+        <v>1</v>
+      </c>
       <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4454,33 +4813,38 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t>Autonomie, esprit entrepreneuriale,  forte proximité au sein des communautés,  bonne ambiance</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>Forte croissance de l'entreprise qui nécessite plus de process,</t>
         </is>
       </c>
-      <c r="F92" s="2" t="n">
+      <c r="G92" s="2" t="n">
         <v>43823</v>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H92" t="b">
-        <v>1</v>
-      </c>
       <c r="I92" t="b">
         <v>1</v>
       </c>
       <c r="J92" t="b">
         <v>1</v>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
       <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -4498,35 +4862,40 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
           <t>Missions a fort impact en transformation, amélioration de performance et organisation notamment sur la filière IT
 Implication de tous les niveaux hiérarchiques sur les missions favorisant une rapide montée en compétence
 Implication à tout niveau dans le développement du cabinet (pas uniquement réservé aux managers et plus comme dans d'autres cabinets concurrents)</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>Forte culture du travail et du résultat qui impacte l'équilibre vie perso / vie pro</t>
         </is>
       </c>
-      <c r="F93" s="2" t="n">
+      <c r="G93" s="2" t="n">
         <v>43810</v>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Manager</t>
         </is>
       </c>
-      <c r="H93" t="b">
-        <v>1</v>
-      </c>
       <c r="I93" t="b">
         <v>1</v>
       </c>
       <c r="J93" t="b">
+        <v>1</v>
+      </c>
+      <c r="K93" t="b">
         <v>0</v>
       </c>
-      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -4544,33 +4913,38 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t>Etat d'esprit très sympa, entraide, fun</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>Un staffing en décalé par rapport à ses appétences sectorielle et métier</t>
         </is>
       </c>
-      <c r="F94" s="2" t="n">
+      <c r="G94" s="2" t="n">
         <v>43790</v>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H94" t="b">
-        <v>1</v>
-      </c>
       <c r="I94" t="b">
         <v>1</v>
       </c>
       <c r="J94" t="b">
+        <v>1</v>
+      </c>
+      <c r="K94" t="b">
         <v>0</v>
       </c>
-      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -4588,10 +4962,15 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
           <t>La petite taille du cabinet permet une flexibilité et une créativité de la part des consultants qui le souhaitent.</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>Je dirai que le management est complètement à revoir ! On promeut des managers à 4/5 ans d'expérience sous prétexte qu'ils ont rapporté du business. Mais ces consultants n'ont développé aucun domaine d'expertise et ne peuvent pas challenger des consultants junior voire même senior en mission sans parler de tenir une discussion avec des clients haut niveau sur des domaines d'expertise ! 
 En somme c'est une entreprise de vendeurs....
@@ -4600,25 +4979,25 @@
 Bref, c'est très dommage pour un cabinet qui pourrait être prometteur de fermer les yeux sur ces pratiques qui découragent les autres consultants qui finissent par partir.</t>
         </is>
       </c>
-      <c r="F95" s="2" t="n">
+      <c r="G95" s="2" t="n">
         <v>43776</v>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Consultant Junior</t>
         </is>
       </c>
-      <c r="H95" t="b">
-        <v>1</v>
-      </c>
       <c r="I95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="b">
+        <v>0</v>
+      </c>
       <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -4634,29 +5013,30 @@
           <t>Un avis</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
         <is>
           <t>L'ambiance est top - surtout le seminaire</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>Les horaires sont longues - salaire un peu bas</t>
         </is>
       </c>
-      <c r="F96" s="2" t="n">
+      <c r="G96" s="2" t="n">
         <v>43748</v>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4674,34 +5054,39 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>Suite à mon expérience en tant que stagiaire qui était très enrichissante, j'ai fait part de ma volonté de rester dans le cadre d'une alternance.
   Mon expérience s'articule autour de diverses activités qui me permette un apprentissage permanent avec des équipes  professionnelles et bienveillantes.</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>Manque d'activité au sein du CSE.</t>
         </is>
       </c>
-      <c r="F97" s="2" t="n">
+      <c r="G97" s="2" t="n">
         <v>43747</v>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>Etudiant En Alternance</t>
         </is>
       </c>
-      <c r="H97" t="b">
-        <v>1</v>
-      </c>
       <c r="I97" t="b">
         <v>1</v>
       </c>
       <c r="J97" t="b">
         <v>1</v>
       </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
       <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -4717,30 +5102,31 @@
           <t>Cabinet en pleine croissance !</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
         <is>
           <t>Salaire au dessus du marché actuel
 Taux d'embauche après stage de fin d'étude important</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>Les stagiaires ne sont pas forcément envoyé en mission chez le client</t>
         </is>
       </c>
-      <c r="F98" s="2" t="n">
+      <c r="G98" s="2" t="n">
         <v>43741</v>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4758,10 +5144,15 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
           <t>Le salaire en début de carrière (la compensation des points cités ci-dessous)</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>Beaucoup de mission de PMO non intéressantes
 Peu de vrai domaines d'expertises
@@ -4770,25 +5161,25 @@
 Pas de CE</t>
         </is>
       </c>
-      <c r="F99" s="2" t="n">
+      <c r="G99" s="2" t="n">
         <v>43728</v>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Consultant</t>
         </is>
       </c>
-      <c r="H99" t="b">
-        <v>1</v>
-      </c>
       <c r="I99" t="b">
         <v>1</v>
       </c>
       <c r="J99" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" t="b">
         <v>0</v>
       </c>
-      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4806,10 +5197,15 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
           <t>- Salaire d'entrée supérieur à la moyenne</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>- Une ambiance totalement différente suivant le secteur d'activité
 - Des directeurs et des managers qui se permettent "d'écraser" leurs consultants et de leur signifier qu'ils leurs sont supérieurs, mais ces directeurs sont protégés par les associés puisqu'ils leur "apportent de l'argent et du business depuis quelques années" . De la dictature manageriale approuvée par les associés.
@@ -4822,25 +5218,25 @@
 - Des démissions en cascade</t>
         </is>
       </c>
-      <c r="F100" s="2" t="n">
+      <c r="G100" s="2" t="n">
         <v>43734</v>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>Consultant</t>
         </is>
       </c>
-      <c r="H100" t="b">
-        <v>1</v>
-      </c>
       <c r="I100" t="b">
         <v>1</v>
       </c>
       <c r="J100" t="b">
         <v>1</v>
       </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
       <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4856,31 +5252,32 @@
           <t>Consultant Alternant</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
         <is>
           <t>Lieu agréable, Missions diversifiées, place pour l'expression</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>Faible suivi des nouveaux arrivants, 
 Pas de primes
 Pas de CE</t>
         </is>
       </c>
-      <c r="F101" s="2" t="n">
+      <c r="G101" s="2" t="n">
         <v>43675</v>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>Etudiant En Alternance</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4896,35 +5293,36 @@
           <t>Bonne ambiance bon développement professionel</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
         <is>
           <t>Esprit startup, hierarchie transversale, management de proximité</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>Il y a trop de consultants "typiques"</t>
         </is>
       </c>
-      <c r="F102" s="2" t="n">
+      <c r="G102" s="2" t="n">
         <v>43552</v>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H102" t="b">
-        <v>1</v>
-      </c>
       <c r="I102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="b">
         <v>0</v>
       </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="b">
+        <v>0</v>
+      </c>
       <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4941,6 +5339,11 @@
         </is>
       </c>
       <c r="D103" t="inlineStr">
+        <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
         <is>
           <t>- Salaire au-dessus de la moyenne du marché
 - Diversité de mission
@@ -4951,31 +5354,31 @@
 - Equilibre vie pro/ perso respecté (mieux que mes expériences passées)</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>- Prime de performance: à verser à 100%
 - CE à développer car inexistant</t>
         </is>
       </c>
-      <c r="F103" s="2" t="n">
+      <c r="G103" s="2" t="n">
         <v>43535</v>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H103" t="b">
-        <v>1</v>
-      </c>
       <c r="I103" t="b">
         <v>1</v>
       </c>
       <c r="J103" t="b">
         <v>1</v>
       </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
       <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4991,7 +5394,8 @@
           <t>Expérience enrichissante et mitigée</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
         <is>
           <t>- Quelques managers, directeurs et partners à l'écoute
 - Missions avec des responsabilités
@@ -4999,7 +5403,7 @@
 - Salaire plus élevé que sur le marché</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>- Pas de suivi des consultants (développement exponentiel depuis 2018 sur le nombre de consultants...)
 - Toujours les mêmes missions, pas forcément intéressant des personnes expérimentées
@@ -5007,25 +5411,25 @@
 - Manque de cohérence entre la communication et la réalité du cabinet (écart avec les valeurs affichées)</t>
         </is>
       </c>
-      <c r="F104" s="2" t="n">
+      <c r="G104" s="2" t="n">
         <v>43542</v>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H104" t="b">
-        <v>1</v>
-      </c>
       <c r="I104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="b">
         <v>0</v>
       </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="b">
+        <v>0</v>
+      </c>
       <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -5043,33 +5447,38 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
           <t>Environnement très dynamique  proposant beaucoup d'opportunités pour les consultants.</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>Les process internes ne progressent pas aussi vite que la société.</t>
         </is>
       </c>
-      <c r="F105" s="2" t="n">
+      <c r="G105" s="2" t="n">
         <v>43532</v>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H105" t="b">
-        <v>1</v>
-      </c>
       <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="b">
         <v>0</v>
       </c>
-      <c r="J105" t="b">
-        <v>1</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
       <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -5085,36 +5494,37 @@
           <t>En plein boom</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
         <is>
           <t>Dans ma BU : Ambiance, missions, clients.
 Un cabinet en croissance avec des opportunités pour les consultants (il faut les prendre par contre).</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>Entreprise en croissance donc pas encore tous les processus carrés, mais c'est aussi ce qui offre des opportunités de carrière.</t>
         </is>
       </c>
-      <c r="F106" s="2" t="n">
+      <c r="G106" s="2" t="n">
         <v>43530</v>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H106" t="b">
-        <v>1</v>
-      </c>
       <c r="I106" t="b">
         <v>1</v>
       </c>
       <c r="J106" t="b">
         <v>1</v>
       </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
       <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -5130,37 +5540,38 @@
           <t>Un cabinet dynamique où on se sent bien!</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
         <is>
           <t>Un cabinet en pleine croissance, dynamique avec une bonne ambiance. Les souhaits des consultants concernant le staffing sont écoutés. De plus il y a une vraie proximité avec les managers et les associés. Et les salaires sont compétitifs.
 Je recommande !</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>Les tâches administratives devraient être mieux structurées. 
 Le CE pourrait être développé...</t>
         </is>
       </c>
-      <c r="F107" s="2" t="n">
+      <c r="G107" s="2" t="n">
         <v>43515</v>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>Consultant Confirmé</t>
         </is>
       </c>
-      <c r="H107" t="b">
-        <v>1</v>
-      </c>
       <c r="I107" t="b">
         <v>1</v>
       </c>
       <c r="J107" t="b">
         <v>1</v>
       </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
       <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -5178,35 +5589,40 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
           <t>- Forte variété de missions/projets et assez bonne flexibilité sur les staffings (les souhaits des consultants sont écoutés)
 - Les prises d'initiative et l'implication dans des projets internes est très encouragée par le cabinet / la direction 
 - Rémunération plutôt en haut de la fourchette du conseil en organisation</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>- Les avantages autres que la rémunération (qui est très compétitive) pourraient être meilleurs (CE, PEE ...)</t>
         </is>
       </c>
-      <c r="F108" s="2" t="n">
+      <c r="G108" s="2" t="n">
         <v>43508</v>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>Consultant</t>
         </is>
       </c>
-      <c r="H108" t="b">
-        <v>1</v>
-      </c>
       <c r="I108" t="b">
         <v>1</v>
       </c>
       <c r="J108" t="b">
         <v>1</v>
       </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
       <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -5223,6 +5639,11 @@
         </is>
       </c>
       <c r="D109" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
         <is>
           <t>- management de proximité
 - opportunités  intéressantes
@@ -5231,30 +5652,30 @@
 - modèles de rétribution intéressant</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>- processus en cours de construction</t>
         </is>
       </c>
-      <c r="F109" s="2" t="n">
+      <c r="G109" s="2" t="n">
         <v>43507</v>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H109" t="b">
-        <v>1</v>
-      </c>
       <c r="I109" t="b">
         <v>1</v>
       </c>
       <c r="J109" t="b">
         <v>1</v>
       </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
       <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -5272,33 +5693,38 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
           <t>Jeune entreprise dynamique. Forte perspective d'évolution, avec une ambiance convivial avec une proximité avec les partenaire. Plusieurs formations de qualité sont proposer tout au long de l'année</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>Manque de visibilité sur les différente mission proposer. L'Evolution rapide du cabinet pousse les consultant à être attentif aux opportunités afin de trouver la mission qu'il leurs corresponds le mieux.</t>
         </is>
       </c>
-      <c r="F110" s="2" t="n">
+      <c r="G110" s="2" t="n">
         <v>43507</v>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>Junior Consultant</t>
         </is>
       </c>
-      <c r="H110" t="b">
-        <v>1</v>
-      </c>
       <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="b">
         <v>0</v>
       </c>
-      <c r="J110" t="b">
-        <v>1</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
       <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -5316,31 +5742,36 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
           <t>Cabinet avec une bonne  ambiance et qui offre de bonnes perspectives d’évolution.</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>Positionnement parfois incertain et un management souvent trop pris pour nous accompagner.</t>
         </is>
       </c>
-      <c r="F111" s="2" t="n">
+      <c r="G111" s="2" t="n">
         <v>43495</v>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>Consultant Confirmé</t>
         </is>
       </c>
-      <c r="H111" t="b">
-        <v>1</v>
-      </c>
       <c r="I111" t="b">
         <v>1</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="b">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -5356,29 +5787,30 @@
           <t>Ambiance au top !</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
         <is>
           <t>Travailler aux côtes de jeunes talents sur des missions formateur dans une belle ambiance.</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>........ #Atention aux décisions à chaud ...</t>
         </is>
       </c>
-      <c r="F112" s="2" t="n">
+      <c r="G112" s="2" t="n">
         <v>43428</v>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -5394,31 +5826,32 @@
           <t>Cabinet sympa avec des possibilités de belles missions</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
         <is>
           <t>Bonne dynamique, proximité des partners avec les consultants, il peut y avoir de belles missions</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>Direction un peu trop centré sur l'argent, et trop de taches de back office sont sur les épaules des consultants, augmentations peu avantageuses</t>
         </is>
       </c>
-      <c r="F113" s="2" t="n">
+      <c r="G113" s="2" t="n">
         <v>43418</v>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="b">
-        <v>1</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
       <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -5436,10 +5869,15 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
           <t>Salaires légèrement supérieurs à ceux du secteur</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>- Amateurisme : les livrables types existants sont de qualité médiocres et sans aucune originalité.
 - Manque de maturité notamment en CIB où les membres de la communauté ne connaissent rien de la Banque d'investissement.
@@ -5448,25 +5886,25 @@
 Autant vous dire qu'avec le travail médiocre et l'amateurisme mis en avant dans le cadre des missions, les missions potentielles se feront rares dans les années à venir.</t>
         </is>
       </c>
-      <c r="F114" s="2" t="n">
+      <c r="G114" s="2" t="n">
         <v>43419</v>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>Consultant</t>
         </is>
       </c>
-      <c r="H114" t="b">
-        <v>1</v>
-      </c>
       <c r="I114" t="b">
         <v>1</v>
       </c>
       <c r="J114" t="b">
         <v>1</v>
       </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
       <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -5483,6 +5921,11 @@
         </is>
       </c>
       <c r="D115" t="inlineStr">
+        <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
         <is>
           <t>Des mon arrivée chez TNP j'ai été parfaitement intégrée.
 Suivie par un coach des mon intégration j'ai pu faire part de mes souhaits et de mes envies avec une écoute attentive quant à mes demandes. 
@@ -5491,30 +5934,30 @@
 L'ambiance et l’animation de la vie interne est top (séminaire au soleil, afterwork, cours d'oenologie....), on se sent comme dans une grande famille.</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>Il faudrait étoffer l'offre du CE et plus de place pour le parking.</t>
         </is>
       </c>
-      <c r="F115" s="2" t="n">
+      <c r="G115" s="2" t="n">
         <v>43248</v>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>Consultant Confirmé</t>
         </is>
       </c>
-      <c r="H115" t="b">
-        <v>1</v>
-      </c>
       <c r="I115" t="b">
         <v>1</v>
       </c>
       <c r="J115" t="b">
         <v>1</v>
       </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
       <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -5532,36 +5975,41 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
           <t>Les projets sont challengeant et on accède rapidement à beaucoup de responsabilité. L'ambiance est extrêmement bonne entre les collaborateurs et on est très proche de l'équipe dirigeante lors des missions.
 Si on cherche un cabinet en forte croissance où l'on apprend tous les jours, cela convient très bien.
 La méritocratie est très bien appliquée.</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>Peut être pas le meilleur cabinet pour être formé lorsqu'on est junior mais cela dépend aussi du manager qui nous encadre.
 Le CE est quasiment inexistant</t>
         </is>
       </c>
-      <c r="F116" s="2" t="n">
+      <c r="G116" s="2" t="n">
         <v>43244</v>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>Consultant Confirmé</t>
         </is>
       </c>
-      <c r="H116" t="b">
-        <v>1</v>
-      </c>
       <c r="I116" t="b">
         <v>1</v>
       </c>
       <c r="J116" t="b">
         <v>1</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
       <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -5579,36 +6027,41 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
           <t>Le cabinet est très dynamique, je trouve que la proximité avec les associés est une vraie valeur ajoutée. 
 Chaque idée est encouragée et il est possible de diversifier les projets et de travailler sur des sujets en interne pour le développement du cabinet.
 L’ambiance est très sympa aussi; tous les consultants sont très ouverts à l'échange et au partage des compétences.</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>Comme tous les cabinets en grosse croissance, l'organisation interne est en cours de "stabilisation".  
 Pas de PEE mais normale pour la taille de l'entreprise</t>
         </is>
       </c>
-      <c r="F117" s="2" t="n">
+      <c r="G117" s="2" t="n">
         <v>43237</v>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>Senior Consultant</t>
         </is>
       </c>
-      <c r="H117" t="b">
-        <v>1</v>
-      </c>
       <c r="I117" t="b">
         <v>1</v>
       </c>
       <c r="J117" t="b">
         <v>1</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
       <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -5625,6 +6078,11 @@
         </is>
       </c>
       <c r="D118" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
         <is>
           <t>Positionnement conseil
 Proximité Management / Direction, avec une bonne transparence de la direction sur ses valeurs, sa stratégie
@@ -5633,31 +6091,31 @@
 Cherche à innover constamment</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>Des disparités de fonctionnement selon les secteurs de fonctionnement (exigences différentes, type de mission, ...)
 Implication demandée globalement plus importante que dans d'autres cabinets (mais le cabinet sait en être reconnaissant)</t>
         </is>
       </c>
-      <c r="F118" s="2" t="n">
+      <c r="G118" s="2" t="n">
         <v>43212</v>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H118" t="b">
-        <v>1</v>
-      </c>
       <c r="I118" t="b">
         <v>1</v>
       </c>
       <c r="J118" t="b">
         <v>1</v>
       </c>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
       <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -5674,6 +6132,11 @@
         </is>
       </c>
       <c r="D119" t="inlineStr">
+        <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
         <is>
           <t>-Possibilité de travailler en direct avec certains associés
 -Cabinet multi-sectorielle qui permet de toucher à plusieurs sujets
@@ -5683,7 +6146,7 @@
 -Principe de communauté qui permet de rester up-to-date sur les sujets d’actualité</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>-Entreprise très axée sur l’enrichissement des partenaires et très peu sur le bien-être et l’équilibre vie professionnelle/vie privée des consultants. 
 -Missions généralement inintéressantes type PMO ou autres.
@@ -5693,25 +6156,25 @@
 -Incohérence de la grille salariale et revalorisation salariale discrétionnaire (le taux de base est faible mais si vous exprimez un mécontentement vous serez plus augmenté)</t>
         </is>
       </c>
-      <c r="F119" s="2" t="n">
+      <c r="G119" s="2" t="n">
         <v>43230</v>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>Junior Consultant</t>
         </is>
       </c>
-      <c r="H119" t="b">
-        <v>1</v>
-      </c>
       <c r="I119" t="b">
         <v>1</v>
       </c>
       <c r="J119" t="b">
+        <v>1</v>
+      </c>
+      <c r="K119" t="b">
         <v>0</v>
       </c>
-      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -5728,13 +6191,18 @@
         </is>
       </c>
       <c r="D120" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
         <is>
           <t>L’ambiance entre les collaborateurs est globalement bonne
 Il y a un séminaire à l’étranger tous les ans
 Les initiatives d’investissement en interne sont généralement appréciées</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>- Cabinet spécialisé dans le PMO sur des sujets SI. Très peu de missions du “vrai conseil” qui demande un niveau intellectuel relativement élevé.
 - “Business first” ancré dans l’esprit de la direction. En termes de staffing, c’est souvent du non-respect vis-à-vis des attentes de beaucoup de consultants. 
@@ -5745,25 +6213,25 @@
 - Niveaux de compétences assez hétérogènes dans tous les grades. Certains managers et directeurs manquent de compétences...</t>
         </is>
       </c>
-      <c r="F120" s="2" t="n">
+      <c r="G120" s="2" t="n">
         <v>43209</v>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>Consultant Confirmé</t>
         </is>
       </c>
-      <c r="H120" t="b">
-        <v>1</v>
-      </c>
       <c r="I120" t="b">
         <v>1</v>
       </c>
       <c r="J120" t="b">
         <v>1</v>
       </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
       <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -5779,35 +6247,36 @@
           <t>De la poudre aux yeux</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
         <is>
           <t>Le salaire qui est attractif et des beaux clients</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>Tout le reste : ambiance, pression, management ...</t>
         </is>
       </c>
-      <c r="F121" s="2" t="n">
+      <c r="G121" s="2" t="n">
         <v>43200</v>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H121" t="b">
-        <v>1</v>
-      </c>
       <c r="I121" t="b">
         <v>1</v>
       </c>
       <c r="J121" t="b">
         <v>1</v>
       </c>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
       <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -5823,38 +6292,39 @@
           <t>Un cabinet devenu quelconque</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
         <is>
           <t>- Ambiance entre collaborateurs
 - Equilibre vie pro/perso correct</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>- Croissance réalisée au détriment de la qualité des missions
 - Recrutements hasardeux
 - Accent mis sur le faire-savoir plus que sur le savoir-faire</t>
         </is>
       </c>
-      <c r="F122" s="2" t="n">
+      <c r="G122" s="2" t="n">
         <v>43174</v>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>Consultant</t>
         </is>
       </c>
-      <c r="H122" t="b">
-        <v>1</v>
-      </c>
       <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="b">
         <v>0</v>
       </c>
-      <c r="J122" t="b">
-        <v>1</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
       <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -5870,37 +6340,38 @@
           <t>Inintéressant avant le grade de manager</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
         <is>
           <t>Seule la rémunération est attractive.</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>Il est difficile de pourvoir grandir et surtout apprendre dans un cabinet où les seuls intérêts se focalisent sur une croissance extrême et non le bien être de ses consultants.
 La règle unique du cabinet est le "business first" et ce loins devant la qualité du delivery et qu'importe la satisfaction client.
 La qualité des missions proposées par le cabinet sont en dessous des standards "Big 4".</t>
         </is>
       </c>
-      <c r="F123" s="2" t="n">
+      <c r="G123" s="2" t="n">
         <v>43138</v>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H123" t="b">
-        <v>1</v>
-      </c>
       <c r="I123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="b">
         <v>0</v>
       </c>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="b">
+        <v>0</v>
+      </c>
       <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -5918,33 +6389,38 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
           <t>Autonomie, possibilité d'exploration de nouveaux sujets et de nouveaux terrains de jeux réelle, proximité avec les équipes dirigeantes, profils non formatés qu'on peut retrouver dans les grands cabinets. Pas de plafond de verre</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>Peu de processus, engagement demandé important</t>
         </is>
       </c>
-      <c r="F124" s="2" t="n">
+      <c r="G124" s="2" t="n">
         <v>43126</v>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>Directeur</t>
         </is>
       </c>
-      <c r="H124" t="b">
-        <v>1</v>
-      </c>
       <c r="I124" t="b">
         <v>1</v>
       </c>
       <c r="J124" t="b">
         <v>1</v>
       </c>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
       <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -5962,33 +6438,38 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
           <t>Cabinet en forte croissance permettant des opportunités d'évolution en interne. Dynamisme, liberté d'entreprendre. Paye plus que la moyenne du marché (à noter, il n'y a aucun avantage en dehors du package fixe + variable + obligations légales).</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>Relations humaines catastrophiques, faible considération pour les collaborateurs, horaires aberrants (soirs et weekends), recrutements erratiques ayant conduit à des niveaux de compétences extrêmement variables à tous niveaux de la pyramide (dont à la direction) et plutôt bas de manière générale.</t>
         </is>
       </c>
-      <c r="F125" s="2" t="n">
+      <c r="G125" s="2" t="n">
         <v>43084</v>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H125" t="b">
-        <v>1</v>
-      </c>
       <c r="I125" t="b">
         <v>1</v>
       </c>
       <c r="J125" t="b">
         <v>1</v>
       </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
       <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -6004,33 +6485,34 @@
           <t>TNP Consultants</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
         <is>
           <t>Proximité avec les associés, structure plate, bonne ambiance</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>Pas d'inconvénients à signaler :)</t>
         </is>
       </c>
-      <c r="F126" s="2" t="n">
+      <c r="G126" s="2" t="n">
         <v>43004</v>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>Junior Consultant</t>
         </is>
       </c>
-      <c r="H126" t="b">
-        <v>1</v>
-      </c>
       <c r="I126" t="b">
         <v>1</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="b">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -6048,34 +6530,39 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
           <t>Cabinet en forte croissance, tres dynamique. Effervescence orientée chiffre d'affaire avec au final peu de considération pour les relations humaines.</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>Ambiance peu épanouissante, voire infantilisante, parsemée de concepts creux...
 Aucun parcours d'évolution individualisé, Formations au compte goutte en mode loterie.</t>
         </is>
       </c>
-      <c r="F127" s="2" t="n">
+      <c r="G127" s="2" t="n">
         <v>42920</v>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>Consultant</t>
         </is>
       </c>
-      <c r="H127" t="b">
-        <v>1</v>
-      </c>
       <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="b">
         <v>0</v>
       </c>
-      <c r="J127" t="b">
-        <v>1</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
       <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -6093,33 +6580,38 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
           <t>travaillant depuis près de trois ans chez TNP en qualité de consultante junior, je suis dorénavant consultante confirmée et ai déjà travaillé sur 3 missions différentes, ce qui m'a fait progresser et grâce également au programme de formations, j'apprends de nouvelles méthodes et certifications. Le management est plutôt proche des gens, même si le temps manque parfois aux uns et autres.</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>pas plus d'inconvénients que dans les autres sociétés de conseil</t>
         </is>
       </c>
-      <c r="F128" s="2" t="n">
+      <c r="G128" s="2" t="n">
         <v>42867</v>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>Consultant Confirmé</t>
         </is>
       </c>
-      <c r="H128" t="b">
-        <v>1</v>
-      </c>
       <c r="I128" t="b">
         <v>1</v>
       </c>
       <c r="J128" t="b">
         <v>1</v>
       </c>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
       <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -6136,6 +6628,11 @@
         </is>
       </c>
       <c r="D129" t="inlineStr">
+        <is>
+          <t>Neuilly</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
         <is>
           <t>Bonne ambiance
 Participation à la vie du cabinet
@@ -6144,30 +6641,30 @@
 Dirigeants reconnaissants envers leurs salariés</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>Trouver un équilibre vie professionnelle et vie personnelle
 CE avec peu d'avantages
 Faible participation</t>
         </is>
       </c>
-      <c r="F129" s="2" t="n">
+      <c r="G129" s="2" t="n">
         <v>42857</v>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>Manager</t>
         </is>
       </c>
-      <c r="H129" t="b">
-        <v>1</v>
-      </c>
       <c r="I129" t="b">
         <v>1</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="b">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -6183,34 +6680,35 @@
           <t>bof</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
         <is>
           <t>collègues sympas. ambiance sympa au cabinet.</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>Ce sont des anciens de csc qui ont fondé le cabinet et qui recrutent massivement des consultants csc, on retrouve donc une organisation similaire à celle de csc mais en moins aboutie et les avantages de csc en moins (pas de CE, primes non motivantes)
 si vous souhaitez intervenir principalement sur des missions pmo, allez-y</t>
         </is>
       </c>
-      <c r="F130" s="2" t="n">
+      <c r="G130" s="2" t="n">
         <v>42830</v>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H130" t="b">
-        <v>1</v>
-      </c>
       <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="b">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -6226,31 +6724,32 @@
           <t>Fort potentiel</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
         <is>
           <t>Grandes ambitions, très bonne ambiance, bonne écoute</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>Faiblesse en industrie &amp; services, rares missions en solitaire</t>
         </is>
       </c>
-      <c r="F131" s="2" t="n">
+      <c r="G131" s="2" t="n">
         <v>42769</v>
       </c>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="b">
-        <v>1</v>
-      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="b">
         <v>1</v>
       </c>
       <c r="J131" t="b">
         <v>1</v>
       </c>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
       <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -6266,35 +6765,36 @@
           <t>Challenges!!</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
         <is>
           <t>Bonne ambiance, bonne solidarité d'équipe, possibilité de proposer ses idées, direction à l'écoute.</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>Une direction overbookée et avec laquelle il faut faire prendre de patience.</t>
         </is>
       </c>
-      <c r="F132" s="2" t="n">
+      <c r="G132" s="2" t="n">
         <v>42714</v>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>Chargée De Communication</t>
         </is>
       </c>
-      <c r="H132" t="b">
-        <v>1</v>
-      </c>
       <c r="I132" t="b">
         <v>1</v>
       </c>
       <c r="J132" t="b">
+        <v>1</v>
+      </c>
+      <c r="K132" t="b">
         <v>0</v>
       </c>
-      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -6312,35 +6812,40 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
+          <t>Cheadle, North West England, England</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
           <t>Bonne ambiance au sein du cabinet
 Autonomie des consultants</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>Missions de plus en plus PMO
 Business first au détriment de l'expertise et de la qualité</t>
         </is>
       </c>
-      <c r="F133" s="2" t="n">
+      <c r="G133" s="2" t="n">
         <v>42666</v>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H133" t="b">
-        <v>1</v>
-      </c>
       <c r="I133" t="b">
         <v>1</v>
       </c>
       <c r="J133" t="b">
+        <v>1</v>
+      </c>
+      <c r="K133" t="b">
         <v>0</v>
       </c>
-      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -6356,29 +6861,30 @@
           <t>Challengeant mais épuisant</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
         <is>
           <t>Mentalité intrapreuneur Beaucoup de liberté</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>Équilibre vie pro vie perso Fonction support qui ont du mal à suivre la croissance de l’entreprise.</t>
         </is>
       </c>
-      <c r="F134" s="2" t="n">
+      <c r="G134" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>Consultant Confirmé</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -6394,35 +6900,36 @@
           <t>Bonne ambiance</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
         <is>
           <t>beaucoup de flexibilité/bon esprit d'équipe</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>beaucoup de juniors dans les équipes</t>
         </is>
       </c>
-      <c r="F135" s="2" t="n">
+      <c r="G135" s="2" t="n">
         <v>44309</v>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>Manager</t>
         </is>
       </c>
-      <c r="H135" t="b">
-        <v>1</v>
-      </c>
       <c r="I135" t="b">
         <v>1</v>
       </c>
       <c r="J135" t="b">
+        <v>1</v>
+      </c>
+      <c r="K135" t="b">
         <v>0</v>
       </c>
-      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -6438,35 +6945,36 @@
           <t>manager</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
         <is>
           <t>salaire, autonomie, ambiance, perspectifs, missions</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>charge de travail sur les missions</t>
         </is>
       </c>
-      <c r="F136" s="2" t="n">
+      <c r="G136" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H136" t="b">
-        <v>1</v>
-      </c>
       <c r="I136" t="b">
         <v>1</v>
       </c>
       <c r="J136" t="b">
         <v>1</v>
       </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
       <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -6482,30 +6990,31 @@
           <t>Encore un autre cabinet de conseil dans le digital..</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
         <is>
           <t>Cadre intéressant pour travailler
 Salaire dans la moyenne des autres cabinets</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>Manque de qualités humaines (valeurs)</t>
         </is>
       </c>
-      <c r="F137" s="2" t="n">
+      <c r="G137" s="2" t="n">
         <v>42674</v>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>Employé anonyme</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
